--- a/Test_cases/caso de prueba 2.xlsx
+++ b/Test_cases/caso de prueba 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Documents\GitHub\Grupo0102\Test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lautaroacosta/Documents/Facultad/Testing/Grupo0102/Test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED88DB0-D518-4E33-A7A3-D6F50913D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C574F0-72DC-AB4C-AADB-3C62C5B12D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="500" windowWidth="28460" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>User create account (Principal Scenario)</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -236,6 +233,9 @@
   </si>
   <si>
     <t>PE-54</t>
+  </si>
+  <si>
+    <t>User sign in  (Principal Scenario)</t>
   </si>
 </sst>
 </file>
@@ -738,54 +738,29 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,7 +769,32 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,18 +1015,18 @@
   </sheetPr>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,12 +1036,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1051,7 +1051,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1065,8 @@
         <v>7</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1076,7 +1076,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
@@ -1118,7 +1118,7 @@
       <c r="N4" s="13"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +1143,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="18"/>
@@ -1153,8 +1153,8 @@
       <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1164,7 +1164,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1178,8 @@
       <c r="E7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1189,7 +1189,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>1</v>
       </c>
@@ -1199,8 +1199,8 @@
       <c r="C8" s="4"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1210,7 +1210,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -1220,8 +1220,8 @@
       <c r="C9" s="4"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1231,14 +1231,14 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
       <c r="C10" s="4"/>
       <c r="D10" s="25"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1248,7 +1248,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="27"/>
       <c r="C11" s="4"/>
@@ -1265,14 +1265,14 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="4"/>
       <c r="D12" s="25"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1282,7 +1282,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1299,76 +1299,76 @@
       <c r="N13" s="29"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="25"/>
       <c r="E14" s="28"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="75"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="64"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="25"/>
       <c r="E15" s="28"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76" t="s">
+      <c r="H15" s="64"/>
+      <c r="I15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76" t="s">
+      <c r="J15" s="64"/>
+      <c r="K15" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76" t="s">
+      <c r="L15" s="64"/>
+      <c r="M15" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="75"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="25"/>
       <c r="E16" s="28"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="76" t="s">
+      <c r="G16" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76" t="s">
+      <c r="H16" s="64"/>
+      <c r="I16" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="75"/>
-      <c r="K16" s="76" t="s">
+      <c r="J16" s="64"/>
+      <c r="K16" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76" t="s">
+      <c r="L16" s="64"/>
+      <c r="M16" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="75"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1463,16 +1463,16 @@
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
+    <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="61"/>
+      <c r="B20" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="18"/>
       <c r="G20" s="36" t="s">
         <v>31</v>
@@ -1484,7 +1484,7 @@
         <v>31</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" s="36" t="s">
         <v>31</v>
@@ -1498,12 +1498,12 @@
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="53"/>
+    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="53"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="4"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
@@ -1515,19 +1515,19 @@
       <c r="N21" s="13"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="43" t="s">
         <v>38</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>39</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="39"/>
@@ -1540,7 +1540,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1557,18 +1557,18 @@
       <c r="N23" s="13"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="4"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -1580,18 +1580,18 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="45">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="4"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
@@ -1603,18 +1603,18 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="45">
         <v>2</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="53"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="4"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
@@ -1626,18 +1626,18 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="46">
         <v>3</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="50"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="4"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
@@ -1649,135 +1649,135 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="47"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="63"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="61"/>
+      <c r="I28" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="61"/>
+      <c r="K28" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="61"/>
+      <c r="M28" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="61"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="50"/>
-      <c r="M28" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" s="50"/>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="56" t="s">
+      <c r="J29" s="57"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A32" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="53"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="61"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="53"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="57"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="53"/>
+    <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A33" s="53"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="53"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="57"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>38</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>39</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1790,7 +1790,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1807,18 +1807,18 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="57"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1830,18 +1830,18 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="45">
         <v>1</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="53"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1853,18 +1853,18 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="45">
         <v>2</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="53"/>
+      <c r="B38" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="57"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1876,18 +1876,18 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="46">
         <v>3</v>
       </c>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="50"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1899,7 +1899,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1916,7 +1916,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -1928,116 +1928,116 @@
       <c r="N41" s="8"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="F42" s="18"/>
-      <c r="G42" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="L42" s="53"/>
-      <c r="M42" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="N42" s="53"/>
+      <c r="G42" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="57"/>
+      <c r="I42" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="57"/>
+      <c r="K42" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="57"/>
+      <c r="M42" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="N42" s="57"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="F43" s="4"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="56" t="s">
+      <c r="G43" s="68"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="57"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="F44" s="4"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="69"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F44" s="4"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="61"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="53"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="57"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="66"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="53"/>
+    <row r="46" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="53"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="53"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="57"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="43" t="s">
-        <v>39</v>
-      </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="69"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="69"/>
-      <c r="N47" s="53"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="57"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2054,18 +2054,18 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="C49" s="57"/>
+      <c r="D49" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="53"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2077,18 +2077,18 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="45">
         <v>1</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="57"/>
+      <c r="D50" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" s="53"/>
+      <c r="E50" s="57"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2100,261 +2100,281 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="45">
         <v>2</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="57"/>
+      <c r="D51" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E51" s="53"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E51" s="57"/>
+    </row>
+    <row r="52" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="45">
         <v>3</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="57"/>
+      <c r="D52" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="53"/>
-    </row>
-    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E52" s="57"/>
+    </row>
+    <row r="53" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="45">
         <v>4</v>
       </c>
-      <c r="B53" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="53"/>
-    </row>
-    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="57"/>
+      <c r="D53" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="57"/>
+    </row>
+    <row r="54" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="45">
         <v>5</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="58" t="s">
+      <c r="E54" s="57"/>
+    </row>
+    <row r="59" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="53"/>
-    </row>
-    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="61"/>
-    </row>
-    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="66"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="53"/>
-    </row>
-    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="55"/>
+    </row>
+    <row r="60" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="53"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="57"/>
+    </row>
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="C63" s="55"/>
+      <c r="D63" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="61"/>
-    </row>
-    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E63" s="55"/>
+    </row>
+    <row r="64" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="C64" s="57"/>
+      <c r="D64" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="57"/>
+    </row>
+    <row r="65" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="58" t="s">
+      <c r="B65" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="57"/>
+      <c r="D65" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="57"/>
+    </row>
+    <row r="66" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="61"/>
+      <c r="D66" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="53"/>
-    </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" s="53"/>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="50"/>
-    </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="77"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="77"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
+      <c r="E66" s="61"/>
+    </row>
+    <row r="70" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A70" s="49"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+    </row>
+    <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A71" s="49"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="77"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-    </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="77"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-    </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="77"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-    </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="77"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-    </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="77"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-    </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="77"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+    </row>
+    <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A73" s="49"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+    </row>
+    <row r="74" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+    </row>
+    <row r="75" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+    </row>
+    <row r="76" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+    </row>
+    <row r="77" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="77"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="A45:A46"/>
@@ -2379,63 +2399,43 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B59:E60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_cases/caso de prueba 2.xlsx
+++ b/Test_cases/caso de prueba 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lautaroacosta/Documents/Facultad/Testing/Grupo0102/Test_cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UADE\Grupo0102\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C574F0-72DC-AB4C-AADB-3C62C5B12D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC46337-A0A2-458F-B8E4-F3189DE6CA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="500" windowWidth="28460" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -199,9 +199,6 @@
     <t xml:space="preserve">Enter email adress linked to account </t>
   </si>
   <si>
-    <t>email shoul be verified</t>
-  </si>
-  <si>
     <t>enter invalid password</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t xml:space="preserve"> click blocked user?</t>
   </si>
   <si>
-    <t xml:space="preserve">shoul be redirected </t>
-  </si>
-  <si>
     <t>Invalid user (Alternative Scenario)</t>
   </si>
   <si>
@@ -236,6 +230,36 @@
   </si>
   <si>
     <t>User sign in  (Principal Scenario)</t>
+  </si>
+  <si>
+    <t>User sign in again with new password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should sign in succesfullly and be redirected </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user receive and email </t>
+  </si>
+  <si>
+    <t>user unblocked</t>
+  </si>
+  <si>
+    <t>should sign in succesfully and be redirected</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>generate new user</t>
+  </si>
+  <si>
+    <t>sign in again with the user password</t>
   </si>
 </sst>
 </file>
@@ -396,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -610,11 +634,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -739,28 +800,54 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,31 +856,22 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,18 +1093,18 @@
   </sheetPr>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,12 +1114,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1051,7 +1129,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1065,8 +1143,8 @@
         <v>7</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1076,7 +1154,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1179,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
@@ -1118,7 +1196,7 @@
       <c r="N4" s="13"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +1221,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="18"/>
@@ -1153,8 +1231,8 @@
       <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1164,7 +1242,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1256,8 @@
       <c r="E7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1189,7 +1267,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>1</v>
       </c>
@@ -1199,8 +1277,8 @@
       <c r="C8" s="4"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1210,7 +1288,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -1220,8 +1298,8 @@
       <c r="C9" s="4"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1231,14 +1309,14 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="27"/>
       <c r="C10" s="4"/>
       <c r="D10" s="25"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1248,7 +1326,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="27"/>
       <c r="C11" s="4"/>
@@ -1265,14 +1343,14 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="4"/>
       <c r="D12" s="25"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1282,7 +1360,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1299,76 +1377,76 @@
       <c r="N13" s="29"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="25"/>
       <c r="E14" s="28"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="64"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="25"/>
       <c r="E15" s="28"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65" t="s">
+      <c r="H15" s="76"/>
+      <c r="I15" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65" t="s">
+      <c r="J15" s="76"/>
+      <c r="K15" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65" t="s">
+      <c r="L15" s="76"/>
+      <c r="M15" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="64"/>
+      <c r="N15" s="76"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="25"/>
       <c r="E16" s="28"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65" t="s">
+      <c r="H16" s="76"/>
+      <c r="I16" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="65" t="s">
+      <c r="J16" s="76"/>
+      <c r="K16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65" t="s">
+      <c r="L16" s="76"/>
+      <c r="M16" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="64"/>
+      <c r="N16" s="76"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1401,7 +1479,7 @@
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1432,7 +1510,7 @@
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1463,16 +1541,16 @@
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="52" t="s">
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="18"/>
       <c r="G20" s="36" t="s">
         <v>31</v>
@@ -1498,12 +1576,12 @@
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="4"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
@@ -1515,12 +1593,12 @@
       <c r="N21" s="13"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="42" t="s">
@@ -1540,7 +1618,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1557,18 +1635,18 @@
       <c r="N23" s="13"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="57"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="4"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -1580,18 +1658,18 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="45">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="59" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="4"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
@@ -1603,18 +1681,18 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="45">
         <v>2</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="59" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="4"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
@@ -1626,18 +1704,18 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="46">
         <v>3</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="60" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="61"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="4"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
@@ -1649,128 +1727,128 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="75" t="s">
+      <c r="G28" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="76" t="s">
+      <c r="H28" s="51"/>
+      <c r="I28" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="J28" s="61"/>
-      <c r="K28" s="76" t="s">
+      <c r="J28" s="51"/>
+      <c r="K28" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="76" t="s">
+      <c r="L28" s="51"/>
+      <c r="M28" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="N28" s="61"/>
+      <c r="N28" s="51"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="47"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="51"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="70" t="s">
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="57"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="57"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="54"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="47"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="57"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="54"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="47"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="57"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="54"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="52" t="s">
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="55"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="57"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="54"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="53"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="57"/>
+    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="60"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="57"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="54"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="42" t="s">
@@ -1790,7 +1868,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1807,18 +1885,18 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="58" t="s">
+      <c r="C36" s="54"/>
+      <c r="D36" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="57"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1830,18 +1908,18 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="45">
         <v>1</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="59" t="s">
+      <c r="C37" s="54"/>
+      <c r="D37" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="57"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1853,18 +1931,18 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="45">
         <v>2</v>
       </c>
-      <c r="B38" s="59" t="s">
+      <c r="B38" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="59" t="s">
+      <c r="C38" s="54"/>
+      <c r="D38" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="57"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1876,18 +1954,18 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="46">
         <v>3</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="60" t="s">
+      <c r="C39" s="80"/>
+      <c r="D39" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="61"/>
+      <c r="E39" s="80"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1899,12 +1977,18 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="78">
+        <v>4</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="82"/>
+      <c r="D40" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="82"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1916,7 +2000,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -1928,96 +2012,96 @@
       <c r="N41" s="8"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="F42" s="18"/>
-      <c r="G42" s="69" t="s">
+      <c r="G42" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="57"/>
-      <c r="I42" s="69" t="s">
+      <c r="H42" s="54"/>
+      <c r="I42" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="J42" s="57"/>
-      <c r="K42" s="69" t="s">
+      <c r="J42" s="54"/>
+      <c r="K42" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="L42" s="57"/>
-      <c r="M42" s="69" t="s">
+      <c r="L42" s="54"/>
+      <c r="M42" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="N42" s="57"/>
+      <c r="N42" s="54"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F43" s="4"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="70" t="s">
+      <c r="G43" s="64"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="J43" s="57"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="57"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="54"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F44" s="4"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="57"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="54"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="52" t="s">
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="55"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="57"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="54"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="53"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="60"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="54"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="57"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="54"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="42" t="s">
@@ -2027,17 +2111,17 @@
         <v>38</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="57"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="54"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2054,18 +2138,18 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58" t="s">
+      <c r="C49" s="54"/>
+      <c r="D49" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="57"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2077,18 +2161,18 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="45">
         <v>1</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="57"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="54"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2100,82 +2184,70 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="45">
         <v>2</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="57"/>
-      <c r="D51" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="57"/>
-    </row>
-    <row r="52" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="E51" s="54"/>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="45">
         <v>3</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="57"/>
-    </row>
-    <row r="53" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="E52" s="54"/>
+    </row>
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>4</v>
       </c>
-      <c r="B53" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="57"/>
-      <c r="D53" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="57"/>
-    </row>
-    <row r="54" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="45">
-        <v>5</v>
-      </c>
-      <c r="B54" s="59" t="s">
+      <c r="B53" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="54"/>
+    </row>
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="57"/>
-    </row>
-    <row r="59" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="55"/>
-    </row>
-    <row r="60" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="53"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="57"/>
-    </row>
-    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="66"/>
+    </row>
+    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="60"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="54"/>
+    </row>
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="42" t="s">
@@ -2185,66 +2257,105 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B63" s="71" t="s">
+      <c r="B63" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="71" t="s">
+      <c r="C63" s="66"/>
+      <c r="D63" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="55"/>
-    </row>
-    <row r="64" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="E63" s="66"/>
+    </row>
+    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="54"/>
+      <c r="D64" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="54"/>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B65" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="54"/>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="59" t="s">
+      <c r="B66" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="51"/>
+      <c r="D66" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="57"/>
-    </row>
-    <row r="65" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A65" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="57"/>
-    </row>
-    <row r="66" spans="1:6" ht="14" x14ac:dyDescent="0.15">
-      <c r="A66" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="61"/>
-      <c r="D66" s="60" t="s">
+      <c r="E66" s="51"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="E66" s="61"/>
-    </row>
-    <row r="70" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="C67" s="54"/>
+      <c r="D67" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="54"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="54"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="54"/>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="49"/>
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
@@ -2252,7 +2363,7 @@
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
     </row>
-    <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="49"/>
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
@@ -2268,7 +2379,7 @@
       <c r="E72" s="49"/>
       <c r="F72" s="49"/>
     </row>
-    <row r="73" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="49"/>
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
@@ -2276,7 +2387,7 @@
       <c r="E73" s="49"/>
       <c r="F73" s="49"/>
     </row>
-    <row r="74" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="49"/>
       <c r="B74" s="49"/>
       <c r="C74" s="49"/>
@@ -2284,7 +2395,7 @@
       <c r="E74" s="49"/>
       <c r="F74" s="49"/>
     </row>
-    <row r="75" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="49"/>
       <c r="B75" s="49"/>
       <c r="C75" s="49"/>
@@ -2292,7 +2403,7 @@
       <c r="E75" s="49"/>
       <c r="F75" s="49"/>
     </row>
-    <row r="76" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="49"/>
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
@@ -2300,7 +2411,7 @@
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
     </row>
-    <row r="77" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="49"/>
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
@@ -2317,64 +2428,50 @@
       <c r="F78" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B59:E60"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
+  <mergeCells count="124">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="A45:A46"/>
@@ -2399,43 +2496,63 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_cases/caso de prueba 2.xlsx
+++ b/Test_cases/caso de prueba 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UADE\Grupo0102\Test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Documents\GitHub\Grupo0102\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC46337-A0A2-458F-B8E4-F3189DE6CA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D4F3E-F04D-460C-BE36-F256DE1E352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="690" windowWidth="27720" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -85,24 +85,12 @@
     <t>Executions</t>
   </si>
   <si>
-    <t>Regression 1</t>
-  </si>
-  <si>
-    <t>Regression 2</t>
-  </si>
-  <si>
-    <t>Regression 3</t>
-  </si>
-  <si>
     <t>Regression 4</t>
   </si>
   <si>
     <t>Tester: Lautaro Acosta</t>
   </si>
   <si>
-    <t>Tester: Nino Bizzotto</t>
-  </si>
-  <si>
     <t>Tester: Facundo Martinez Vidal</t>
   </si>
   <si>
@@ -169,9 +157,6 @@
     <t>Defects Created</t>
   </si>
   <si>
-    <t>DF-001: Invalid Password</t>
-  </si>
-  <si>
     <t>User forgot password (Alternative Scenario)</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>should be redirected and send you an email</t>
   </si>
   <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
-  </si>
-  <si>
     <t>Invalid password (Alternative Scenario)</t>
   </si>
   <si>
@@ -260,13 +242,34 @@
   </si>
   <si>
     <t>sign in again with the user password</t>
+  </si>
+  <si>
+    <t>Regression 1- PE-54(principal scenario)</t>
+  </si>
+  <si>
+    <t>Tester: Iñaki Moreno</t>
+  </si>
+  <si>
+    <t>Regression 2-PE-54(User forgot password Alternative Scenario)</t>
+  </si>
+  <si>
+    <t>Not as expected</t>
+  </si>
+  <si>
+    <t>Forgot password button does not exist</t>
+  </si>
+  <si>
+    <t>Regression 3-PE-54(invalid password)</t>
+  </si>
+  <si>
+    <t>Site does not block the user after 3 attempts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -375,8 +378,34 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +446,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -675,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -800,54 +835,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,22 +878,48 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,11 +1141,11 @@
   </sheetPr>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -1114,12 +1162,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1143,8 +1191,8 @@
         <v>7</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1231,8 +1279,8 @@
       <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1256,8 +1304,8 @@
       <c r="E7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1277,8 +1325,8 @@
       <c r="C8" s="4"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1298,8 +1346,8 @@
       <c r="C9" s="4"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1315,8 +1363,8 @@
       <c r="C10" s="4"/>
       <c r="D10" s="25"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1349,8 +1397,8 @@
       <c r="C12" s="4"/>
       <c r="D12" s="25"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1384,16 +1432,16 @@
       <c r="D14" s="25"/>
       <c r="E14" s="28"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="74" t="s">
+      <c r="G14" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,22 +1451,22 @@
       <c r="D15" s="25"/>
       <c r="E15" s="28"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="76"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1428,22 +1476,22 @@
       <c r="D16" s="25"/>
       <c r="E16" s="28"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="76"/>
-      <c r="K16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="76"/>
+      <c r="G16" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="69"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -1454,28 +1502,28 @@
       <c r="E17" s="4"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L17" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O17" s="4"/>
     </row>
@@ -1487,26 +1535,26 @@
       <c r="E18" s="4"/>
       <c r="F18" s="18"/>
       <c r="G18" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="K18" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O18" s="4"/>
     </row>
@@ -1518,94 +1566,102 @@
       <c r="E19" s="8"/>
       <c r="F19" s="18"/>
       <c r="G19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>32</v>
-      </c>
       <c r="K19" s="34" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="66"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="18"/>
       <c r="G20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>35</v>
-      </c>
       <c r="K20" s="36" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M20" s="38"/>
       <c r="N20" s="36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="60"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="54"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="4"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
+      <c r="I21" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="39"/>
@@ -1631,22 +1687,22 @@
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
-      <c r="M23" s="13"/>
+      <c r="M23" s="91"/>
       <c r="N23" s="13"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="54"/>
+        <v>35</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="56"/>
       <c r="F24" s="4"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -1662,14 +1718,14 @@
       <c r="A25" s="45">
         <v>1</v>
       </c>
-      <c r="B25" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="54"/>
+      <c r="B25" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="56"/>
       <c r="F25" s="4"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
@@ -1685,14 +1741,14 @@
       <c r="A26" s="45">
         <v>2</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="54"/>
+      <c r="B26" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="56"/>
       <c r="F26" s="4"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
@@ -1708,14 +1764,14 @@
       <c r="A27" s="46">
         <v>3</v>
       </c>
-      <c r="B27" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="51"/>
+      <c r="B27" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="66"/>
       <c r="F27" s="4"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
@@ -1729,133 +1785,135 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="68"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="51"/>
-      <c r="K28" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="51"/>
-      <c r="M28" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="51"/>
+      <c r="G28" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="66"/>
+      <c r="I28" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="66"/>
+      <c r="K28" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="66"/>
+      <c r="M28" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="66"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="47"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="68"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="56"/>
+      <c r="K29" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="89"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="56"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="47"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="68"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="54"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="56"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="47"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="68"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="54"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="56"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="66"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="54"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="56"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="54"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="54"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="56"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1887,16 +1945,16 @@
     </row>
     <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="54"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="56"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1912,14 +1970,14 @@
       <c r="A37" s="45">
         <v>1</v>
       </c>
-      <c r="B37" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="54"/>
+      <c r="B37" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="56"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1935,14 +1993,14 @@
       <c r="A38" s="45">
         <v>2</v>
       </c>
-      <c r="B38" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="54"/>
+      <c r="B38" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="56"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1958,14 +2016,14 @@
       <c r="A39" s="46">
         <v>3</v>
       </c>
-      <c r="B39" s="79" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="80"/>
+      <c r="B39" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="74"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1978,17 +2036,17 @@
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="78">
+      <c r="A40" s="50">
         <v>4</v>
       </c>
-      <c r="B40" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="82"/>
+      <c r="B40" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="54"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2002,124 +2060,114 @@
     </row>
     <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F41" s="4"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="4"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="83"/>
     </row>
     <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="F42" s="18"/>
-      <c r="G42" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" s="54"/>
-      <c r="I42" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" s="54"/>
-      <c r="K42" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" s="54"/>
-      <c r="M42" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="N42" s="54"/>
-      <c r="O42" s="4"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="83"/>
     </row>
     <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F43" s="4"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="54"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="4"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="83"/>
     </row>
     <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F44" s="4"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="4"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="86"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="83"/>
     </row>
     <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="66"/>
+        <v>30</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="4"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="83"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="54"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="56"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="4"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="83"/>
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="4"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="86"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="86"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="83"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
@@ -2140,16 +2188,16 @@
     </row>
     <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="54"/>
+        <v>35</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="56"/>
+      <c r="D49" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="56"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2165,14 +2213,14 @@
       <c r="A50" s="45">
         <v>1</v>
       </c>
-      <c r="B50" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="54"/>
+      <c r="B50" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="56"/>
+      <c r="D50" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="56"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2188,73 +2236,73 @@
       <c r="A51" s="45">
         <v>2</v>
       </c>
-      <c r="B51" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="54"/>
+      <c r="B51" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="56"/>
+      <c r="D51" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="56"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="45">
         <v>3</v>
       </c>
-      <c r="B52" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="54"/>
+      <c r="B52" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="56"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>4</v>
       </c>
-      <c r="B53" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53" s="54"/>
+      <c r="B53" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="56"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="66"/>
+        <v>30</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="62"/>
     </row>
     <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="60"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="54"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="56"/>
     </row>
     <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -2266,94 +2314,94 @@
     </row>
     <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="66"/>
-      <c r="D63" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="66"/>
+        <v>35</v>
+      </c>
+      <c r="B63" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="62"/>
+      <c r="D63" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="62"/>
     </row>
     <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="54"/>
+        <v>58</v>
+      </c>
+      <c r="B64" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="56"/>
+      <c r="D64" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="56"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="54"/>
+      <c r="B65" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="56"/>
+      <c r="D65" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="56"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="66"/>
+      <c r="D66" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="66"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="56"/>
+      <c r="D67" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="56"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="56"/>
+      <c r="D68" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="51"/>
-      <c r="D66" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E66" s="51"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="54"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="62" t="s">
+      <c r="E68" s="56"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="54"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="54"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="56"/>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="49"/>
@@ -2429,49 +2477,63 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="A45:A46"/>
@@ -2496,64 +2558,51 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B59:E60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test_cases/caso de prueba 2.xlsx
+++ b/Test_cases/caso de prueba 2.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Documents\GitHub\Grupo0102\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D4F3E-F04D-460C-BE36-F256DE1E352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590865FC-2902-439E-BACA-A8CCDA6315D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="690" windowWidth="27720" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="PE-54" sheetId="1" r:id="rId1"/>
+    <sheet name="Defect template(Facundo Vidal)" sheetId="3" r:id="rId2"/>
+    <sheet name="Defects template(Lautaro Acosta" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="110">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -199,9 +201,6 @@
     <t>2a</t>
   </si>
   <si>
-    <t>enter invalid user</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
@@ -263,13 +262,103 @@
   </si>
   <si>
     <t>Site does not block the user after 3 attempts</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>1- Open the application page http://127.0.0.1:5000/</t>
+  </si>
+  <si>
+    <t>2- Click "Log-In"</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>100% reproduction rate</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Forgot password button doesnt exist</t>
+  </si>
+  <si>
+    <t>Page doesnt have the forgot password functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Forgot passsword?" button should appear </t>
+  </si>
+  <si>
+    <t>Forgot password button doesnt exist and neither does its functionality</t>
+  </si>
+  <si>
+    <t>Critical Severity - If the user forgot its password he cant enter the page unless he creates a new acount</t>
+  </si>
+  <si>
+    <t>Affected User Story: PE-54</t>
+  </si>
+  <si>
+    <t>QA environment, http://127.0.0.1:5000/loginForm</t>
+  </si>
+  <si>
+    <t>Account isnt blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The page doesnt block your account after various failed attempts of signing in </t>
+  </si>
+  <si>
+    <t>enter invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Enter Invalid password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Enter invalid password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- Enter invalid password </t>
+  </si>
+  <si>
+    <t>Account should be blocked and a mesage saying "blocked user" should appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account isnt blocked </t>
+  </si>
+  <si>
+    <t>Medium Severity - Account security could be at risk without this functionality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -404,8 +493,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,8 +562,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -706,11 +820,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -844,32 +1078,68 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -878,48 +1148,45 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,8 +1408,8 @@
   </sheetPr>
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1162,12 +1429,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1191,8 +1458,8 @@
         <v>7</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1279,8 +1546,8 @@
       <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1304,8 +1571,8 @@
       <c r="E7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1325,8 +1592,8 @@
       <c r="C8" s="4"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1346,8 +1613,8 @@
       <c r="C9" s="4"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1363,8 +1630,8 @@
       <c r="C10" s="4"/>
       <c r="D10" s="25"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1397,8 +1664,8 @@
       <c r="C12" s="4"/>
       <c r="D12" s="25"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1432,16 +1699,16 @@
       <c r="D14" s="25"/>
       <c r="E14" s="28"/>
       <c r="F14" s="30"/>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="69"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="87"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1451,22 +1718,22 @@
       <c r="D15" s="25"/>
       <c r="E15" s="28"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70" t="s">
+      <c r="G15" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="87"/>
+      <c r="K15" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="69"/>
+      <c r="N15" s="87"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,22 +1743,22 @@
       <c r="D16" s="25"/>
       <c r="E16" s="28"/>
       <c r="F16" s="30"/>
-      <c r="G16" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="69"/>
-      <c r="I16" s="90" t="s">
+      <c r="G16" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="87"/>
+      <c r="I16" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70" t="s">
+      <c r="J16" s="87"/>
+      <c r="K16" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="69"/>
-      <c r="M16" s="70" t="s">
+      <c r="L16" s="87"/>
+      <c r="M16" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="69"/>
+      <c r="N16" s="87"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -1541,7 +1808,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>31</v>
@@ -1572,7 +1839,7 @@
         <v>28</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" s="37" t="s">
         <v>31</v>
@@ -1590,15 +1857,15 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="62"/>
+      <c r="B20" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="18"/>
       <c r="G20" s="36" t="s">
         <v>27</v>
@@ -1607,7 +1874,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="37" t="s">
         <v>31</v>
@@ -1625,22 +1892,22 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="4"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="37" t="s">
         <v>31</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L21" s="37" t="s">
         <v>31</v>
@@ -1654,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="42" t="s">
@@ -1687,7 +1954,7 @@
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
-      <c r="M23" s="91"/>
+      <c r="M23" s="55"/>
       <c r="N23" s="13"/>
       <c r="O23" s="4"/>
     </row>
@@ -1695,14 +1962,14 @@
       <c r="A24" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="64" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="60"/>
       <c r="F24" s="4"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -1718,14 +1985,14 @@
       <c r="A25" s="45">
         <v>1</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="55" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="4"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
@@ -1741,14 +2008,14 @@
       <c r="A26" s="45">
         <v>2</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="55" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="4"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
@@ -1764,14 +2031,14 @@
       <c r="A27" s="46">
         <v>3</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="65" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="66"/>
+      <c r="E27" s="57"/>
       <c r="F27" s="4"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
@@ -1785,120 +2052,120 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="80" t="s">
+      <c r="G28" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="81" t="s">
+      <c r="H28" s="57"/>
+      <c r="I28" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="66"/>
-      <c r="K28" s="81" t="s">
+      <c r="J28" s="57"/>
+      <c r="K28" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="81" t="s">
+      <c r="L28" s="57"/>
+      <c r="M28" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="66"/>
+      <c r="N28" s="57"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="47"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="56"/>
-      <c r="K29" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="89"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="60"/>
+      <c r="K29" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="65"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="47"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="56"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="47"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="56"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="60"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="62"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="56"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="60"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="56"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="56"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="60"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1906,7 +2173,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="42" t="s">
@@ -1947,14 +2214,14 @@
       <c r="A36" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="64" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="56"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1970,14 +2237,14 @@
       <c r="A37" s="45">
         <v>1</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="55" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="56"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1993,14 +2260,14 @@
       <c r="A38" s="45">
         <v>2</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="55" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2016,14 +2283,14 @@
       <c r="A39" s="46">
         <v>3</v>
       </c>
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="73" t="s">
+      <c r="C39" s="81"/>
+      <c r="D39" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="74"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -2039,14 +2306,14 @@
       <c r="A40" s="50">
         <v>4</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="91"/>
+      <c r="D40" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="54"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2060,96 +2327,96 @@
     </row>
     <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F41" s="4"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="83"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="54"/>
     </row>
     <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="F42" s="18"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="83"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="54"/>
     </row>
     <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F43" s="4"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="83"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="54"/>
     </row>
     <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="F44" s="4"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="83"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="54"/>
     </row>
     <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="62"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="83"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="54"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="56"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="60"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="83"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="54"/>
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="42" t="s">
@@ -2159,15 +2426,15 @@
         <v>34</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="83"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="71"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="71"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="54"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
@@ -2190,14 +2457,14 @@
       <c r="A49" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="64" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="56"/>
+      <c r="E49" s="60"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2213,14 +2480,14 @@
       <c r="A50" s="45">
         <v>1</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="55" t="s">
+      <c r="C50" s="60"/>
+      <c r="D50" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="60"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2236,66 +2503,66 @@
       <c r="A51" s="45">
         <v>2</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="55" t="s">
+      <c r="C51" s="60"/>
+      <c r="D51" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="56"/>
+      <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="45">
         <v>3</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="55" t="s">
+      <c r="C52" s="60"/>
+      <c r="D52" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="56"/>
+      <c r="E52" s="60"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="45">
         <v>4</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="55" t="s">
+      <c r="C53" s="60"/>
+      <c r="D53" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="56"/>
+      <c r="E53" s="60"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="62"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="74"/>
     </row>
     <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="60"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="56"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="60"/>
     </row>
     <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="42" t="s">
@@ -2316,92 +2583,92 @@
       <c r="A63" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="76" t="s">
+      <c r="C63" s="74"/>
+      <c r="D63" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E63" s="62"/>
+      <c r="E63" s="74"/>
     </row>
     <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B64" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="56"/>
-      <c r="D64" s="55" t="s">
+      <c r="B64" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="56"/>
+      <c r="E64" s="60"/>
     </row>
     <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="55" t="s">
+      <c r="B65" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="60"/>
+      <c r="D65" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="56"/>
+      <c r="E65" s="60"/>
     </row>
     <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="57"/>
+      <c r="D66" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="66"/>
+      <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E67" s="56"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="60"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" s="56"/>
+        <v>69</v>
+      </c>
+      <c r="B68" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="60"/>
+      <c r="D68" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="60"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="56"/>
+        <v>70</v>
+      </c>
+      <c r="B69" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="60"/>
+      <c r="D69" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="60"/>
     </row>
     <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="49"/>
@@ -2477,63 +2744,49 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B59:E60"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="M46:N46"/>
     <mergeCell ref="A45:A46"/>
@@ -2558,51 +2811,487 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K43:L43"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B59:E60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753B3CE3-FFA8-4AE9-97A2-942E8DE0C7A4}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="94"/>
+      <c r="B9" s="101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="94"/>
+      <c r="B10" s="101"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="94"/>
+      <c r="B11" s="101"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="94"/>
+      <c r="B12" s="101"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="94"/>
+      <c r="B13" s="101"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="94"/>
+      <c r="B14" s="101"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="101"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="94"/>
+      <c r="B16" s="101"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="94"/>
+      <c r="B17" s="101"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="100"/>
+      <c r="B27" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="106"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="107"/>
+      <c r="B36" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:A36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBECCCAE-BDEF-4351-9B0C-A672136AE2FE}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="98"/>
+      <c r="B6" s="99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="94"/>
+      <c r="B9" s="101"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="94"/>
+      <c r="B10" s="101"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="94"/>
+      <c r="B11" s="101"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="94"/>
+      <c r="B12" s="101"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="94"/>
+      <c r="B13" s="101"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="94"/>
+      <c r="B14" s="101"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="94"/>
+      <c r="B15" s="101"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="94"/>
+      <c r="B16" s="101"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="94"/>
+      <c r="B17" s="101"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="102" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="100"/>
+      <c r="B27" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="104" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="106"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="107"/>
+      <c r="B36" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:A36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>